--- a/dist/template/trien_khai.xlsx
+++ b/dist/template/trien_khai.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8516CF1-8D63-43BF-8CF6-F1F583F6DD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68826A2F-591C-4550-BC6D-B8B360DFB854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2052" yWindow="2436" windowWidth="13632" windowHeight="8232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,12 +201,6 @@
     <t>${table:data.status}</t>
   </si>
   <si>
-    <t>${table:data.am}</t>
-  </si>
-  <si>
-    <t>${table:data.pm}</t>
-  </si>
-  <si>
     <t>${table:data.manager_name}</t>
   </si>
   <si>
@@ -220,6 +214,12 @@
   </si>
   <si>
     <t>${table:data.ke_hoach_tuan_sau}</t>
+  </si>
+  <si>
+    <t>${table:data.AM}</t>
+  </si>
+  <si>
+    <t>${table:data.PM}</t>
   </si>
 </sst>
 </file>
@@ -880,25 +880,25 @@
         <v>58</v>
       </c>
       <c r="AA2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AD2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AE2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AF2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="15" customFormat="1" x14ac:dyDescent="0.25">

--- a/dist/template/trien_khai.xlsx
+++ b/dist/template/trien_khai.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68826A2F-591C-4550-BC6D-B8B360DFB854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A8EE6B-4D3B-4EB5-B011-A446BC9E214A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -325,41 +325,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -382,6 +352,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -671,256 +668,256 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="29.6640625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="20.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" style="3" customWidth="1"/>
-    <col min="6" max="9" width="21.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="21.44140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="20" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="20.88671875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="3" customWidth="1"/>
-    <col min="18" max="20" width="16.109375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="17.88671875" style="3" customWidth="1"/>
-    <col min="22" max="22" width="36.5546875" style="3" customWidth="1"/>
-    <col min="23" max="23" width="32" style="3" customWidth="1"/>
-    <col min="24" max="24" width="27.44140625" style="3" customWidth="1"/>
-    <col min="25" max="26" width="12.6640625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="16" style="3" customWidth="1"/>
-    <col min="28" max="28" width="16.5546875" style="3" customWidth="1"/>
-    <col min="29" max="30" width="30" style="3" customWidth="1"/>
-    <col min="31" max="31" width="33" style="3" customWidth="1"/>
-    <col min="32" max="32" width="23.44140625" style="3" customWidth="1"/>
-    <col min="33" max="33" width="18.5546875" style="3" customWidth="1"/>
-    <col min="34" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="29.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="21.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="1" customWidth="1"/>
+    <col min="18" max="20" width="16.109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.88671875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="36.5546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="32" style="1" customWidth="1"/>
+    <col min="24" max="24" width="27.44140625" style="1" customWidth="1"/>
+    <col min="25" max="26" width="12.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="16" style="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5546875" style="1" customWidth="1"/>
+    <col min="29" max="30" width="30" style="1" customWidth="1"/>
+    <col min="31" max="31" width="33" style="1" customWidth="1"/>
+    <col min="32" max="32" width="23.44140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="18.5546875" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="12" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:33" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="Z2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AB2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AE2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AG2" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="12"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="12"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
+    <row r="3" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="2"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
     </row>
     <row r="5" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="AE5"/>
